--- a/sb-info/sb_calcOnlyBuy.xlsx
+++ b/sb-info/sb_calcOnlyBuy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB00335C-F18F-4C2F-AA47-5B747CE4CCBA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79AD790-510F-4DD6-B032-5AC657415086}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,169 +17,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
-  <si>
-    <t>26.02.2018</t>
-  </si>
-  <si>
-    <t>6.2450</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>SELL</t>
   </si>
   <si>
-    <t>301.11</t>
-  </si>
-  <si>
-    <t>20.02.2018</t>
-  </si>
-  <si>
-    <t>5.3800</t>
-  </si>
-  <si>
     <t>BUY</t>
   </si>
   <si>
-    <t>259.79</t>
-  </si>
-  <si>
-    <t>13.02.2018</t>
-  </si>
-  <si>
-    <t>5.2740</t>
-  </si>
-  <si>
-    <t>260.18</t>
-  </si>
-  <si>
-    <t>07.02.2018</t>
-  </si>
-  <si>
-    <t>3.8560</t>
-  </si>
-  <si>
-    <t>190.51</t>
-  </si>
-  <si>
-    <t>29.01.2018</t>
-  </si>
-  <si>
-    <t>4.5420</t>
-  </si>
-  <si>
-    <t>190.80</t>
-  </si>
-  <si>
-    <t>24.01.2018</t>
-  </si>
-  <si>
-    <t>4.6560</t>
-  </si>
-  <si>
-    <t>195.88</t>
-  </si>
-  <si>
-    <t>12.01.2018</t>
-  </si>
-  <si>
-    <t>5.0870</t>
-  </si>
-  <si>
-    <t>SHORT</t>
-  </si>
-  <si>
-    <t>181.12</t>
-  </si>
-  <si>
-    <t>22.12.2017</t>
-  </si>
-  <si>
-    <t>4.2650</t>
-  </si>
-  <si>
-    <t>152.31</t>
-  </si>
-  <si>
-    <t>22.11.2017</t>
-  </si>
-  <si>
-    <t>5.8500</t>
-  </si>
-  <si>
-    <t>120.20</t>
-  </si>
-  <si>
-    <t>20.11.2017</t>
-  </si>
-  <si>
-    <t>5.9000</t>
-  </si>
-  <si>
-    <t>121.59</t>
-  </si>
-  <si>
-    <t>15.11.2017</t>
-  </si>
-  <si>
-    <t>5.6500</t>
-  </si>
-  <si>
-    <t>127.60</t>
-  </si>
-  <si>
-    <t>06.11.2017</t>
-  </si>
-  <si>
-    <t>6.2500</t>
-  </si>
-  <si>
-    <t>141.58</t>
-  </si>
-  <si>
-    <t>11.10.2017</t>
-  </si>
-  <si>
-    <t>10.1800</t>
-  </si>
-  <si>
-    <t>102.45</t>
-  </si>
-  <si>
-    <t>06.10.2017</t>
-  </si>
-  <si>
-    <t>9.9550</t>
-  </si>
-  <si>
-    <t>100.49</t>
-  </si>
-  <si>
-    <t>04.10.2017</t>
-  </si>
-  <si>
-    <t>11.2200</t>
-  </si>
-  <si>
-    <t>100.64</t>
-  </si>
-  <si>
-    <t>15.09.2017</t>
-  </si>
-  <si>
-    <t>11.1150</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
-    <t>n</t>
+    <t>f</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>x factor</t>
+  </si>
+  <si>
+    <t>start value</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>commision (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +69,22 @@
       <color rgb="FF333333"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,9 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,404 +450,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L2" sqref="L2:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1">
-        <v>100</v>
-      </c>
-      <c r="K1">
-        <v>100</v>
-      </c>
-      <c r="L1">
-        <v>0.12474611300000001</v>
-      </c>
-      <c r="M1">
-        <f>SUM(J2:J6)/ROWS(J2:J6)</f>
-        <v>12.84899414311179</v>
+      <c r="B1">
+        <v>200</v>
+      </c>
+      <c r="C1">
+        <f t="shared" ref="C1:C5" si="0">B1/B2</f>
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="D1" s="3">
+        <f t="shared" ref="D1:D5" si="1">(C1-1)*100</f>
+        <v>-40.740740740740748</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1">
+        <v>0.15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>337.5</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H7" si="2">(G2/G3-($G$1/100)-1)*100</f>
+        <v>-33.483333333333334</v>
       </c>
       <c r="I2">
-        <v>120</v>
+        <f>SUM(H4:H8)/3</f>
+        <v>66.516666666666666</v>
       </c>
       <c r="J2">
-        <f>((I2-I1)/I1)*100</f>
-        <v>20</v>
-      </c>
-      <c r="K2">
-        <f>K1*(($L$1)+1)</f>
-        <v>112.47461130000001</v>
+        <f>I2/100+1</f>
+        <v>1.6651666666666667</v>
+      </c>
+      <c r="L2">
+        <v>-5.4545454545454497</v>
+      </c>
+      <c r="M2">
+        <f>SUM(L2:L27)/ROWS(L2:L27)</f>
+        <v>2.4453541669541128</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <v>140</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J6" si="0">((I3-I2)/I2)*100</f>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K6" si="1">K2*(($L$1)+1)</f>
-        <v>126.50538187086089</v>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>337.5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>-3.9473684210526301</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>170</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>21.428571428571427</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>142.28643653283146</v>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>225</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>99.85</v>
+      </c>
+      <c r="L4">
+        <v>-4.8275862068965303</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>225</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>165</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>-2.9411764705882351</v>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>7.5</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
-        <v>160.03611642292339</v>
+        <f>7.5*1.5</f>
+        <v>11.25</v>
+      </c>
+      <c r="L5">
+        <v>-3.7037037037037002</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6">
-        <v>180</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>179.99999988629855</v>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>7.5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>49.849999999999994</v>
+      </c>
+      <c r="L6">
+        <v>-1.7543859649122799</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <f>B7/B8</f>
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="3">
+        <f>(C7-1)*100</f>
         <v>50</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>-7.1428571428571503</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <f>(G8/G9-($G$1/100)-1)*100</f>
+        <v>49.849999999999994</v>
+      </c>
+      <c r="I8">
+        <v>100.64</v>
+      </c>
+      <c r="J8">
+        <f>I8/I9</f>
+        <v>1.0079118678017027</v>
+      </c>
+      <c r="L8">
+        <v>-3.63636363636363</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>99.85</v>
+      </c>
+      <c r="L9">
+        <v>1.8181818181818299</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>11.25</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>-3.7735849056603699</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>-8</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <f>(((B10/B11)^(1/B12)-1)*100)</f>
+        <v>4.0041911525952045</v>
+      </c>
+      <c r="L13">
+        <v>-6.3829787234042596</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
+      <c r="L14">
+        <v>-6.5217391304347796</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>11.22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15">
-        <f>((B15/B16)-(B15/B16)*0.15)*E16</f>
-        <v>85.674264507422407</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
+        <f>B12</f>
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>-6.9767441860465</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>11.115</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <v>99.85</v>
-      </c>
-      <c r="G16" t="s">
-        <v>49</v>
+        <f>B13</f>
+        <v>4.0041911525952045</v>
+      </c>
+      <c r="L16">
+        <v>2.32558139534884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <f>B11</f>
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>-2.5641025641025599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <f>B17*(B16/100+1)^B15</f>
+        <v>11.25</v>
+      </c>
+      <c r="L18">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>2.7777777777777901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>0.12474611300000001</v>
+      </c>
+      <c r="E20">
+        <f>SUM(B21:B25)/ROWS(B21:B25)</f>
+        <v>12.84899414311179</v>
+      </c>
+      <c r="L20">
+        <v>-8.5714285714285694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <f>((A21-A20)/A20)*100</f>
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <f>C20*(($D$20)+1)</f>
+        <v>112.47461130000001</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>140</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:B25" si="3">((A22-A21)/A21)*100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="C22">
+        <f>C21*(($D$20)+1)</f>
+        <v>126.50538187086089</v>
+      </c>
+      <c r="L22">
+        <v>-9.375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>170</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="C23">
+        <f>C22*(($D$20)+1)</f>
+        <v>142.28643653283146</v>
+      </c>
+      <c r="L23">
+        <v>131.12582781456899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>165</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>-2.9411764705882351</v>
+      </c>
+      <c r="C24">
+        <f>C23*(($D$20)+1)</f>
+        <v>160.03611642292339</v>
+      </c>
+      <c r="L24">
+        <v>1.5492957746478799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>180</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="C25">
+        <f>C24*(($D$20)+1)</f>
+        <v>179.99999988629855</v>
+      </c>
+      <c r="L25">
+        <v>-4.3478260869565304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>24.609374999999901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>-8.6466165413533798</v>
       </c>
     </row>
   </sheetData>
